--- a/Gufos/M. Documentacao_LeonardoDoNascimentoPereira.xlsx
+++ b/Gufos/M. Documentacao_LeonardoDoNascimentoPereira.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45684686800\Documents\Exercicios\Exercicios\Gufos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45684686800\Documents\Gufos\2s2019-sprint-1-bd\Gufos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794990B-C735-4B1D-BF0E-0370E9699CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C48D88C-11A8-4C57-8115-6834C79465E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{3AEB9D6F-7AAB-4E30-8EF3-52B4EFAA96EE}"/>
   </bookViews>
@@ -596,17 +596,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7A0DAD-5F4B-4528-8906-A74AE0C22B1C}">
-  <dimension ref="C3:J18"/>
+  <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -615,257 +614,252 @@
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="3"/>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="6">
-        <v>1</v>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="E16" s="7">
+        <v>43684.333333333336</v>
+      </c>
       <c r="F16" s="7">
-        <v>43684.333333333336</v>
-      </c>
-      <c r="G16" s="7">
         <v>43683.333333333336</v>
       </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="6">
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>29</v>
+      <c r="E17" s="7">
+        <v>43684.333333333336</v>
       </c>
       <c r="F17" s="7">
-        <v>43684.333333333336</v>
-      </c>
-      <c r="G17" s="7">
         <v>43683.333333333336</v>
       </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="6">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="6">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E18" s="7">
+        <v>41255.75</v>
+      </c>
       <c r="F18" s="7">
-        <v>41255.75</v>
-      </c>
-      <c r="G18" s="7">
         <v>41102.416666666664</v>
       </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="6">
+      <c r="I18" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="F8:G8"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{9F7FE63E-BECA-4B79-A705-F005F25E3923}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{6A2F17C3-F417-4A4D-9DB7-F3FA4C44BB27}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{9F7FE63E-BECA-4B79-A705-F005F25E3923}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{6A2F17C3-F417-4A4D-9DB7-F3FA4C44BB27}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>